--- a/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{989F1CF5-053A-4E20-ABAC-A7CF963AE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ADE4FB-BC12-4FDC-827E-105A3B562051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="420">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,472 +1333,618 @@
   </si>
   <si>
     <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>tshut4</t>
-  </si>
-  <si>
-    <t>ㄘㄨㆵ</t>
-  </si>
-  <si>
-    <t>tshenn1</t>
-  </si>
-  <si>
-    <t>ㄘㆥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>peh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>na2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆰ˫</t>
-  </si>
-  <si>
-    <t>tshainn1</t>
-  </si>
-  <si>
-    <t>ㄘㆮ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cainn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆮ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄨㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄞ˫</t>
-  </si>
-  <si>
-    <t>tshit4</t>
-  </si>
-  <si>
-    <t>ㄘㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>po2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiek4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄜ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆬ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sim6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧㆬˋ</t>
-  </si>
-  <si>
-    <t>tsun1</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆦ˫</t>
-  </si>
-  <si>
-    <t>tsiah4</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lai0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄞ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨˋ</t>
-  </si>
-  <si>
-    <t>tshur2</t>
-  </si>
-  <si>
-    <t>ㄘˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆲ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄞˋ</t>
-  </si>
-  <si>
-    <t>tsi3</t>
-  </si>
-  <si>
-    <t>ㄗㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ke7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㆩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>it4</t>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-  </si>
-  <si>
-    <t>tshiat4</t>
-  </si>
-  <si>
-    <t>ㄘㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ta1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄚ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>put8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄚ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>biau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄞ˙</t>
-  </si>
-  <si>
-    <t>tsing5</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄧ˪</t>
-  </si>
-  <si>
-    <t>tsia2</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="80">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2343,6 +2489,18 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="芫荽 0.94"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2543,7 +2701,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2852,6 +3010,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3527,7 +3691,7 @@
   <dimension ref="B2:V166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:R1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3600,17 +3764,17 @@
       <c r="F4" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="107" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="I4" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="J4" s="98" t="s">
         <v>278</v>
-      </c>
-      <c r="J4" s="98" t="s">
-        <v>280</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="98"/>
@@ -3672,16 +3836,16 @@
         <v>273</v>
       </c>
       <c r="G6" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="100" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="I6" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="J6" s="100" t="s">
         <v>279</v>
-      </c>
-      <c r="J6" s="100" t="s">
-        <v>281</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
@@ -3720,42 +3884,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="98"/>
       <c r="E8" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="G8" s="98" t="s">
         <v>284</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>286</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="J8" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="K8" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="K8" s="98" t="s">
+      <c r="L8" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="L8" s="98" t="s">
-        <v>294</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="O8" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="P8" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="Q8" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="Q8" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="R8" s="98" t="s">
-        <v>304</v>
+      <c r="R8" s="107" t="s">
+        <v>418</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="102"/>
@@ -3820,42 +3984,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="G10" s="100" t="s">
         <v>285</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>287</v>
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="K10" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="K10" s="100" t="s">
+      <c r="L10" s="100" t="s">
         <v>293</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>295</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100" t="s">
+        <v>295</v>
+      </c>
+      <c r="O10" s="100" t="s">
         <v>297</v>
       </c>
-      <c r="O10" s="100" t="s">
+      <c r="P10" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="P10" s="100" t="s">
+      <c r="Q10" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="Q10" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" s="100" t="s">
-        <v>305</v>
+      <c r="R10" s="108" t="s">
+        <v>419</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="102"/>
@@ -3885,45 +4049,45 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="98" t="s">
         <v>306</v>
       </c>
-      <c r="E12" s="98" t="s">
-        <v>304</v>
-      </c>
-      <c r="F12" s="98" t="s">
+      <c r="G12" s="98" t="s">
         <v>308</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="H12" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="I12" s="98" t="s">
         <v>312</v>
-      </c>
-      <c r="I12" s="98" t="s">
-        <v>314</v>
       </c>
       <c r="J12" s="98"/>
       <c r="K12" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="L12" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="L12" s="98" t="s">
+      <c r="M12" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="M12" s="98" t="s">
+      <c r="N12" s="98" t="s">
         <v>320</v>
-      </c>
-      <c r="N12" s="98" t="s">
-        <v>322</v>
       </c>
       <c r="O12" s="98"/>
       <c r="P12" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q12" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="R12" s="98" t="s">
         <v>324</v>
-      </c>
-      <c r="Q12" s="98" t="s">
-        <v>298</v>
-      </c>
-      <c r="R12" s="98" t="s">
-        <v>326</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="102"/>
@@ -3986,45 +4150,45 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="100" t="s">
+      <c r="G14" s="100" t="s">
         <v>309</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="H14" s="108" t="s">
         <v>311</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="I14" s="100" t="s">
         <v>313</v>
-      </c>
-      <c r="I14" s="100" t="s">
-        <v>315</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="L14" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="L14" s="100" t="s">
+      <c r="M14" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="100" t="s">
+      <c r="N14" s="100" t="s">
         <v>321</v>
-      </c>
-      <c r="N14" s="100" t="s">
-        <v>323</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q14" s="100" t="s">
+        <v>297</v>
+      </c>
+      <c r="R14" s="100" t="s">
         <v>325</v>
-      </c>
-      <c r="Q14" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="R14" s="100" t="s">
-        <v>327</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="102"/>
@@ -4054,39 +4218,39 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="98" t="s">
         <v>328</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="F16" s="107" t="s">
         <v>330</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>332</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="J16" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="98" t="s">
+      <c r="K16" s="98" t="s">
         <v>338</v>
-      </c>
-      <c r="K16" s="98" t="s">
-        <v>340</v>
       </c>
       <c r="L16" s="98"/>
       <c r="M16" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="N16" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="N16" s="98" t="s">
+      <c r="O16" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="O16" s="98" t="s">
-        <v>286</v>
-      </c>
       <c r="P16" s="98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
@@ -4151,39 +4315,39 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="F18" s="108" t="s">
         <v>331</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>333</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="100" t="s">
         <v>335</v>
       </c>
-      <c r="I18" s="100" t="s">
+      <c r="J18" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="J18" s="100" t="s">
+      <c r="K18" s="100" t="s">
         <v>339</v>
-      </c>
-      <c r="K18" s="100" t="s">
-        <v>341</v>
       </c>
       <c r="L18" s="100"/>
       <c r="M18" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="N18" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="N18" s="100" t="s">
+      <c r="O18" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="O18" s="100" t="s">
-        <v>287</v>
-      </c>
       <c r="P18" s="100" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
@@ -4215,41 +4379,41 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O20" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="P20" s="98" t="s">
         <v>330</v>
-      </c>
-      <c r="P20" s="98" t="s">
-        <v>332</v>
       </c>
       <c r="Q20" s="98"/>
       <c r="R20" s="98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="102"/>
@@ -4312,41 +4476,41 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O22" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="P22" s="100" t="s">
         <v>331</v>
-      </c>
-      <c r="P22" s="100" t="s">
-        <v>333</v>
       </c>
       <c r="Q22" s="100"/>
       <c r="R22" s="100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="103"/>
@@ -4376,41 +4540,41 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="98" t="s">
         <v>352</v>
-      </c>
-      <c r="E24" s="98" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="G24" s="98" t="s">
-        <v>354</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K24" s="98" t="s">
+        <v>354</v>
+      </c>
+      <c r="L24" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="L24" s="98" t="s">
+      <c r="M24" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="M24" s="98" t="s">
-        <v>360</v>
-      </c>
       <c r="N24" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="O24" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="O24" s="98" t="s">
-        <v>332</v>
-      </c>
       <c r="P24" s="98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98"/>
@@ -4475,41 +4639,41 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="G26" s="100" t="s">
         <v>353</v>
-      </c>
-      <c r="E26" s="100" t="s">
-        <v>331</v>
-      </c>
-      <c r="F26" s="100" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="100" t="s">
-        <v>355</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J26" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K26" s="100" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="M26" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="M26" s="100" t="s">
-        <v>361</v>
-      </c>
       <c r="N26" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="O26" s="100" t="s">
         <v>331</v>
       </c>
-      <c r="O26" s="100" t="s">
-        <v>333</v>
-      </c>
       <c r="P26" s="100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
@@ -4550,42 +4714,42 @@
       <c r="C28" s="52"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="98" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" s="98" t="s">
         <v>296</v>
-      </c>
-      <c r="F28" s="98" t="s">
-        <v>362</v>
-      </c>
-      <c r="G28" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="H28" s="98" t="s">
-        <v>298</v>
       </c>
       <c r="I28" s="98"/>
       <c r="J28" s="98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K28" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="L28" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="L28" s="98" t="s">
+      <c r="M28" s="98" t="s">
         <v>368</v>
-      </c>
-      <c r="M28" s="98" t="s">
-        <v>370</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="P28" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="P28" s="98" t="s">
+      <c r="Q28" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="Q28" s="98" t="s">
+      <c r="R28" s="98" t="s">
         <v>376</v>
-      </c>
-      <c r="R28" s="98" t="s">
-        <v>378</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -4657,42 +4821,42 @@
       <c r="C30" s="52"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="H30" s="100" t="s">
         <v>297</v>
-      </c>
-      <c r="F30" s="100" t="s">
-        <v>363</v>
-      </c>
-      <c r="G30" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="H30" s="100" t="s">
-        <v>299</v>
       </c>
       <c r="I30" s="100"/>
       <c r="J30" s="100" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K30" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="L30" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="L30" s="100" t="s">
+      <c r="M30" s="100" t="s">
         <v>369</v>
-      </c>
-      <c r="M30" s="100" t="s">
-        <v>371</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="P30" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="P30" s="100" t="s">
+      <c r="Q30" s="100" t="s">
         <v>375</v>
       </c>
-      <c r="Q30" s="100" t="s">
-        <v>377</v>
-      </c>
       <c r="R30" s="100" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -4730,42 +4894,42 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H32" s="98"/>
       <c r="I32" s="98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J32" s="98" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M32" s="98"/>
       <c r="N32" s="98" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R32" s="98"/>
       <c r="S32" s="53"/>
@@ -4833,42 +4997,42 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M34" s="100"/>
       <c r="N34" s="100" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R34" s="100"/>
       <c r="S34" s="58"/>
@@ -4899,43 +5063,43 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="I36" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="I36" s="98" t="s">
+      <c r="J36" s="98" t="s">
         <v>284</v>
-      </c>
-      <c r="J36" s="98" t="s">
-        <v>286</v>
       </c>
       <c r="K36" s="98"/>
       <c r="L36" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="M36" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="N36" s="98" t="s">
         <v>396</v>
       </c>
-      <c r="M36" s="98" t="s">
+      <c r="O36" s="98" t="s">
         <v>398</v>
-      </c>
-      <c r="N36" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="O36" s="98" t="s">
-        <v>402</v>
       </c>
       <c r="P36" s="98"/>
       <c r="Q36" s="98" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -4998,43 +5162,43 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G38" s="100"/>
       <c r="H38" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="I38" s="100" t="s">
+      <c r="J38" s="100" t="s">
         <v>285</v>
-      </c>
-      <c r="J38" s="100" t="s">
-        <v>287</v>
       </c>
       <c r="K38" s="100"/>
       <c r="L38" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="M38" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="N38" s="100" t="s">
         <v>397</v>
       </c>
-      <c r="M38" s="100" t="s">
+      <c r="O38" s="100" t="s">
         <v>399</v>
-      </c>
-      <c r="N38" s="100" t="s">
-        <v>401</v>
-      </c>
-      <c r="O38" s="100" t="s">
-        <v>403</v>
       </c>
       <c r="P38" s="100"/>
       <c r="Q38" s="100" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5064,47 +5228,47 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="F40" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="G40" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="98" t="s">
         <v>406</v>
       </c>
-      <c r="F40" s="98" t="s">
+      <c r="I40" s="98" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="G40" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>410</v>
-      </c>
-      <c r="I40" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="J40" s="98" t="s">
-        <v>412</v>
-      </c>
       <c r="K40" s="98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L40" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" s="98" t="s">
         <v>284</v>
-      </c>
-      <c r="M40" s="98" t="s">
-        <v>286</v>
       </c>
       <c r="N40" s="98" t="s">
         <v>270</v>
       </c>
       <c r="O40" s="98"/>
       <c r="P40" s="98" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q40" s="98" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R40" s="98" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5167,47 +5331,47 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" s="100" t="s">
         <v>403</v>
       </c>
-      <c r="E42" s="100" t="s">
+      <c r="F42" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" s="100" t="s">
         <v>407</v>
       </c>
-      <c r="F42" s="100" t="s">
+      <c r="I42" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="J42" s="100" t="s">
         <v>409</v>
       </c>
-      <c r="G42" s="100" t="s">
-        <v>339</v>
-      </c>
-      <c r="H42" s="100" t="s">
-        <v>411</v>
-      </c>
-      <c r="I42" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="J42" s="100" t="s">
-        <v>413</v>
-      </c>
       <c r="K42" s="100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L42" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="M42" s="100" t="s">
         <v>285</v>
-      </c>
-      <c r="M42" s="100" t="s">
-        <v>287</v>
       </c>
       <c r="N42" s="100" t="s">
         <v>271</v>
       </c>
       <c r="O42" s="100"/>
       <c r="P42" s="100" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q42" s="100" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R42" s="100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5237,43 +5401,43 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E44" s="98" t="s">
         <v>272</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="H44" s="98" t="s">
+      <c r="I44" s="98" t="s">
         <v>284</v>
-      </c>
-      <c r="I44" s="98" t="s">
-        <v>286</v>
       </c>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N44" s="98" t="s">
         <v>270</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="R44" s="98" t="s">
         <v>350</v>
-      </c>
-      <c r="R44" s="98" t="s">
-        <v>352</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5336,43 +5500,43 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E46" s="100" t="s">
         <v>273</v>
       </c>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="H46" s="100" t="s">
+      <c r="I46" s="100" t="s">
         <v>285</v>
-      </c>
-      <c r="I46" s="100" t="s">
-        <v>287</v>
       </c>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N46" s="100" t="s">
         <v>271</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="R46" s="100" t="s">
         <v>351</v>
-      </c>
-      <c r="R46" s="100" t="s">
-        <v>353</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5402,7 +5566,7 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E48" s="98" t="s">
         <v>270</v>
@@ -5459,7 +5623,7 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E50" s="100" t="s">
         <v>271</v>

--- a/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ADE4FB-BC12-4FDC-827E-105A3B562051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3166B167-1AC0-42AA-A53C-4B917A093AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="421">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1352,10 +1352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1404,14 +1400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1444,14 +1432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buan2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1468,14 +1448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cainn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆮ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tua7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1544,18 +1516,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,14 +1544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ling5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1632,18 +1588,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>koo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1652,14 +1600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1672,10 +1612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ju5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1708,22 +1644,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cur2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1744,10 +1668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1772,10 +1692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ku3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1784,14 +1700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ke7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tan2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1820,18 +1728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1840,10 +1736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ta1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1852,14 +1744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kip8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1912,10 +1796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1928,15 +1808,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄢ˙</t>
+    <t>ㄘㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="80">
+  <fonts count="82">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2501,6 +2505,22 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語破音01"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2701,7 +2721,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2994,6 +3014,12 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -3012,10 +3038,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3691,7 +3717,7 @@
   <dimension ref="B2:V166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3749,7 +3775,7 @@
       <c r="R3" s="99"/>
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="101" t="s">
+      <c r="V3" s="103" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3764,17 +3790,17 @@
       <c r="F4" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="107" t="s">
-        <v>389</v>
+      <c r="G4" s="101" t="s">
+        <v>366</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="98"/>
@@ -3785,7 +3811,7 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="98"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="102"/>
+      <c r="V4" s="104"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -3821,7 +3847,7 @@
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="102"/>
+      <c r="V5" s="104"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
@@ -3833,19 +3859,19 @@
         <v>271</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>273</v>
+        <v>388</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J6" s="100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
@@ -3856,7 +3882,7 @@
       <c r="Q6" s="100"/>
       <c r="R6" s="100"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="102"/>
+      <c r="V6" s="104"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -3877,52 +3903,52 @@
       <c r="Q7" s="99"/>
       <c r="R7" s="99"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="104"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98"/>
       <c r="E8" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="98" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O8" s="98" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="R8" s="107" t="s">
-        <v>418</v>
+        <v>295</v>
+      </c>
+      <c r="R8" s="101" t="s">
+        <v>387</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="104"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -3977,52 +4003,52 @@
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="104"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H10" s="100"/>
-      <c r="I10" s="100" t="s">
-        <v>287</v>
+      <c r="I10" s="102" t="s">
+        <v>408</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O10" s="100" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q10" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="R10" s="108" t="s">
-        <v>419</v>
+        <v>296</v>
+      </c>
+      <c r="R10" s="102" t="s">
+        <v>396</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="104"/>
     </row>
     <row r="11" spans="2:22" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="77"/>
@@ -4040,57 +4066,59 @@
       <c r="N11" s="99"/>
       <c r="O11" s="99"/>
       <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
+      <c r="Q11" s="99" t="s">
+        <v>406</v>
+      </c>
       <c r="R11" s="99"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="104"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J12" s="98"/>
       <c r="K12" s="98" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N12" s="98" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O12" s="98"/>
       <c r="P12" s="98" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q12" s="98" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="R12" s="98" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="102"/>
+      <c r="V12" s="104"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4144,54 +4172,54 @@
         <v>190</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="104"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" s="108" t="s">
-        <v>311</v>
+        <v>302</v>
+      </c>
+      <c r="H14" s="102" t="s">
+        <v>397</v>
       </c>
       <c r="I14" s="100" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="100" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="R14" s="100" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="S14" s="58"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="104"/>
     </row>
     <row r="15" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="74"/>
@@ -4212,50 +4240,50 @@
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
       <c r="S15" s="81"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="104"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="107" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>404</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L16" s="98"/>
       <c r="M16" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
       <c r="S16" s="53"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="104"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="66">
@@ -4309,50 +4337,50 @@
         <v>186</v>
       </c>
       <c r="S17" s="54"/>
-      <c r="V17" s="102"/>
+      <c r="V17" s="104"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>329</v>
-      </c>
-      <c r="F18" s="108" t="s">
-        <v>331</v>
+        <v>320</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>405</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I18" s="100" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="J18" s="100" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="L18" s="100"/>
       <c r="M18" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N18" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P18" s="100" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
       <c r="S18" s="58"/>
-      <c r="V18" s="102"/>
+      <c r="V18" s="104"/>
     </row>
     <row r="19" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="74"/>
@@ -4373,50 +4401,50 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="99"/>
       <c r="S19" s="81"/>
-      <c r="V19" s="102"/>
+      <c r="V19" s="104"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="98" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P20" s="98" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="98"/>
       <c r="R20" s="98" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="S20" s="53"/>
-      <c r="V20" s="102"/>
+      <c r="V20" s="104"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="66">
@@ -4470,50 +4498,50 @@
         <v>219</v>
       </c>
       <c r="S21" s="54"/>
-      <c r="V21" s="102"/>
+      <c r="V21" s="104"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="O22" s="100" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P22" s="100" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="100"/>
       <c r="R22" s="100" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="S22" s="58"/>
-      <c r="V22" s="103"/>
+      <c r="V22" s="105"/>
     </row>
     <row r="23" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="74"/>
@@ -4540,41 +4568,41 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="M24" s="98" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98"/>
@@ -4639,41 +4667,41 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="J26" s="100" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>355</v>
-      </c>
-      <c r="L26" s="100" t="s">
-        <v>357</v>
+        <v>339</v>
+      </c>
+      <c r="L26" s="102" t="s">
+        <v>341</v>
       </c>
       <c r="M26" s="100" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="N26" s="100" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
@@ -4714,42 +4742,42 @@
       <c r="C28" s="52"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="I28" s="98"/>
       <c r="J28" s="98" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="R28" s="98" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -4821,42 +4849,42 @@
       <c r="C30" s="52"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="I30" s="100"/>
       <c r="J30" s="100" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -4894,42 +4922,42 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="H32" s="98"/>
       <c r="I32" s="98" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J32" s="98" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M32" s="98"/>
       <c r="N32" s="98" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="R32" s="98"/>
       <c r="S32" s="53"/>
@@ -4951,10 +4979,10 @@
       <c r="E33" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="110" t="s">
         <v>205</v>
       </c>
       <c r="H33" s="95" t="s">
@@ -4966,7 +4994,7 @@
       <c r="J33" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="K33" s="95" t="s">
+      <c r="K33" s="109" t="s">
         <v>199</v>
       </c>
       <c r="L33" s="95" t="s">
@@ -4984,7 +5012,7 @@
       <c r="P33" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="Q33" s="95" t="s">
+      <c r="Q33" s="109" t="s">
         <v>258</v>
       </c>
       <c r="R33" s="95" t="s">
@@ -4997,42 +5025,42 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>382</v>
-      </c>
-      <c r="G34" s="100" t="s">
-        <v>384</v>
+        <v>414</v>
+      </c>
+      <c r="G34" s="102" t="s">
+        <v>361</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M34" s="100"/>
       <c r="N34" s="100" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="R34" s="100"/>
       <c r="S34" s="58"/>
@@ -5063,43 +5091,43 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K36" s="98"/>
       <c r="L36" s="98" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="M36" s="98" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="P36" s="98"/>
       <c r="Q36" s="98" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5162,43 +5190,43 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="G38" s="100"/>
       <c r="H38" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I38" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J38" s="100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K38" s="100"/>
       <c r="L38" s="100" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M38" s="100" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="P38" s="100"/>
       <c r="Q38" s="100" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5228,47 +5256,47 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="G40" s="98" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M40" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N40" s="98" t="s">
         <v>270</v>
       </c>
       <c r="O40" s="98"/>
       <c r="P40" s="98" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="Q40" s="98" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="R40" s="98" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5331,47 +5359,47 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M42" s="100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N42" s="100" t="s">
         <v>271</v>
       </c>
       <c r="O42" s="100"/>
       <c r="P42" s="100" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="Q42" s="100" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="R42" s="100" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5401,43 +5429,43 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E44" s="98" t="s">
         <v>272</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="N44" s="98" t="s">
         <v>270</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5500,43 +5528,43 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>273</v>
+        <v>388</v>
       </c>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I46" s="100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="N46" s="100" t="s">
         <v>271</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5566,7 +5594,7 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="E48" s="98" t="s">
         <v>270</v>
@@ -5623,7 +5651,7 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="E50" s="100" t="s">
         <v>271</v>
@@ -8250,7 +8278,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8268,7 +8296,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="106" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8293,7 +8321,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="105"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -8313,7 +8341,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -8335,7 +8363,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="105"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8351,7 +8379,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="105"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8373,7 +8401,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="105"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -8389,7 +8417,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="107"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -8411,7 +8439,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8427,7 +8455,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="107"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8449,7 +8477,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="106"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -8465,7 +8493,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -8488,7 +8516,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8506,7 +8534,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="106" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -8530,7 +8558,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="105"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -8550,7 +8578,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -8570,7 +8598,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8584,7 +8612,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8604,7 +8632,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="105"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8618,7 +8646,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8638,7 +8666,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="105"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8652,7 +8680,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="107"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8672,7 +8700,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="106"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -8686,7 +8714,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3166B167-1AC0-42AA-A53C-4B917A093AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A88432-34A8-48AC-AEDE-5F7A160B9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="420">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,14 +1620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1700,14 +1692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1896,10 +1880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆢㄧㄣˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1941,6 +1921,22 @@
   </si>
   <si>
     <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3020,6 +3016,12 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -3036,12 +3038,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3775,7 +3771,7 @@
       <c r="R3" s="99"/>
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="103" t="s">
+      <c r="V3" s="105" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3791,7 +3787,7 @@
         <v>272</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H4" s="98" t="s">
         <v>273</v>
@@ -3811,7 +3807,7 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="98"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="104"/>
+      <c r="V4" s="106"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -3847,7 +3843,7 @@
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="104"/>
+      <c r="V5" s="106"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
@@ -3859,10 +3855,10 @@
         <v>271</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H6" s="100" t="s">
         <v>274</v>
@@ -3882,7 +3878,7 @@
       <c r="Q6" s="100"/>
       <c r="R6" s="100"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="104"/>
+      <c r="V6" s="106"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -3903,7 +3899,7 @@
       <c r="Q7" s="99"/>
       <c r="R7" s="99"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="104"/>
+      <c r="V7" s="106"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
@@ -3920,7 +3916,7 @@
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J8" s="98" t="s">
         <v>285</v>
@@ -3936,7 +3932,7 @@
         <v>291</v>
       </c>
       <c r="O8" s="98" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P8" s="98" t="s">
         <v>293</v>
@@ -3945,10 +3941,10 @@
         <v>295</v>
       </c>
       <c r="R8" s="101" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="104"/>
+      <c r="V8" s="106"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4003,7 +3999,7 @@
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="104"/>
+      <c r="V9" s="106"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
@@ -4020,7 +4016,7 @@
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="102" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J10" s="100" t="s">
         <v>286</v>
@@ -4036,7 +4032,7 @@
         <v>292</v>
       </c>
       <c r="O10" s="100" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P10" s="100" t="s">
         <v>294</v>
@@ -4045,10 +4041,10 @@
         <v>296</v>
       </c>
       <c r="R10" s="102" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="104"/>
+      <c r="V10" s="106"/>
     </row>
     <row r="11" spans="2:22" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="77"/>
@@ -4067,11 +4063,11 @@
       <c r="O11" s="99"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="99" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="R11" s="99"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="104"/>
+      <c r="V11" s="106"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
@@ -4080,7 +4076,7 @@
         <v>297</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F12" s="98" t="s">
         <v>299</v>
@@ -4112,13 +4108,13 @@
         <v>314</v>
       </c>
       <c r="Q12" s="98" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="R12" s="98" t="s">
         <v>315</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="104"/>
+      <c r="V12" s="106"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4172,7 +4168,7 @@
         <v>190</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="104"/>
+      <c r="V13" s="106"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
@@ -4181,7 +4177,7 @@
         <v>298</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F14" s="100" t="s">
         <v>300</v>
@@ -4190,7 +4186,7 @@
         <v>302</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I14" s="100" t="s">
         <v>306</v>
@@ -4206,20 +4202,20 @@
         <v>312</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="100" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="R14" s="100" t="s">
         <v>316</v>
       </c>
       <c r="S14" s="58"/>
-      <c r="V14" s="104"/>
+      <c r="V14" s="106"/>
     </row>
     <row r="15" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="74"/>
@@ -4240,7 +4236,7 @@
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
       <c r="S15" s="81"/>
-      <c r="V15" s="104"/>
+      <c r="V15" s="106"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
@@ -4252,7 +4248,7 @@
         <v>319</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98" t="s">
@@ -4283,7 +4279,7 @@
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
       <c r="S16" s="53"/>
-      <c r="V16" s="104"/>
+      <c r="V16" s="106"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="66">
@@ -4337,7 +4333,7 @@
         <v>186</v>
       </c>
       <c r="S17" s="54"/>
-      <c r="V17" s="104"/>
+      <c r="V17" s="106"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
@@ -4349,7 +4345,7 @@
         <v>320</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100" t="s">
@@ -4380,7 +4376,7 @@
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
       <c r="S18" s="58"/>
-      <c r="V18" s="104"/>
+      <c r="V18" s="106"/>
     </row>
     <row r="19" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="74"/>
@@ -4401,7 +4397,7 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="99"/>
       <c r="S19" s="81"/>
-      <c r="V19" s="104"/>
+      <c r="V19" s="106"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
@@ -4437,14 +4433,14 @@
         <v>319</v>
       </c>
       <c r="P20" s="98" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="98"/>
       <c r="R20" s="98" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="S20" s="53"/>
-      <c r="V20" s="104"/>
+      <c r="V20" s="106"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="66">
@@ -4498,13 +4494,13 @@
         <v>219</v>
       </c>
       <c r="S21" s="54"/>
-      <c r="V21" s="104"/>
+      <c r="V21" s="106"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E22" s="100" t="s">
         <v>326</v>
@@ -4514,7 +4510,7 @@
         <v>300</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100" t="s">
@@ -4528,20 +4524,20 @@
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O22" s="100" t="s">
         <v>320</v>
       </c>
       <c r="P22" s="100" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="100"/>
       <c r="R22" s="100" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S22" s="58"/>
-      <c r="V22" s="105"/>
+      <c r="V22" s="107"/>
     </row>
     <row r="23" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="74"/>
@@ -4574,7 +4570,7 @@
         <v>319</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G24" s="98" t="s">
         <v>337</v>
@@ -4590,16 +4586,16 @@
         <v>338</v>
       </c>
       <c r="L24" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="M24" s="98" t="s">
         <v>340</v>
-      </c>
-      <c r="M24" s="98" t="s">
-        <v>342</v>
       </c>
       <c r="N24" s="98" t="s">
         <v>319</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P24" s="98" t="s">
         <v>325</v>
@@ -4673,14 +4669,14 @@
         <v>320</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J26" s="100" t="s">
         <v>334</v>
@@ -4689,16 +4685,16 @@
         <v>339</v>
       </c>
       <c r="L26" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="M26" s="100" t="s">
         <v>341</v>
-      </c>
-      <c r="M26" s="100" t="s">
-        <v>343</v>
       </c>
       <c r="N26" s="100" t="s">
         <v>320</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P26" s="100" t="s">
         <v>326</v>
@@ -4745,39 +4741,39 @@
         <v>291</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I28" s="98"/>
       <c r="J28" s="98" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L28" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="M28" s="98" t="s">
         <v>347</v>
-      </c>
-      <c r="M28" s="98" t="s">
-        <v>349</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P28" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q28" s="98" t="s">
         <v>352</v>
       </c>
-      <c r="Q28" s="98" t="s">
+      <c r="R28" s="98" t="s">
         <v>354</v>
-      </c>
-      <c r="R28" s="98" t="s">
-        <v>356</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -4852,39 +4848,39 @@
         <v>292</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I30" s="100"/>
       <c r="J30" s="100" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L30" s="100" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="100" t="s">
         <v>348</v>
-      </c>
-      <c r="M30" s="100" t="s">
-        <v>350</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P30" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q30" s="100" t="s">
         <v>353</v>
       </c>
-      <c r="Q30" s="100" t="s">
-        <v>355</v>
-      </c>
       <c r="R30" s="100" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -4922,42 +4918,42 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="H32" s="98"/>
       <c r="I32" s="98" t="s">
         <v>323</v>
       </c>
       <c r="J32" s="98" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M32" s="98"/>
       <c r="N32" s="98" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O32" s="98" t="s">
         <v>319</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="R32" s="98"/>
       <c r="S32" s="53"/>
@@ -4979,10 +4975,10 @@
       <c r="E33" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="109" t="s">
+      <c r="F33" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="104" t="s">
         <v>205</v>
       </c>
       <c r="H33" s="95" t="s">
@@ -4994,7 +4990,7 @@
       <c r="J33" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="K33" s="109" t="s">
+      <c r="K33" s="103" t="s">
         <v>199</v>
       </c>
       <c r="L33" s="95" t="s">
@@ -5012,7 +5008,7 @@
       <c r="P33" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="Q33" s="109" t="s">
+      <c r="Q33" s="103" t="s">
         <v>258</v>
       </c>
       <c r="R33" s="95" t="s">
@@ -5025,42 +5021,42 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G34" s="102" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100" t="s">
         <v>324</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M34" s="100"/>
       <c r="N34" s="100" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O34" s="100" t="s">
         <v>320</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="R34" s="100"/>
       <c r="S34" s="58"/>
@@ -5111,23 +5107,23 @@
       </c>
       <c r="K36" s="98"/>
       <c r="L36" s="98" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M36" s="98" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P36" s="98"/>
       <c r="Q36" s="98" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5213,20 +5209,20 @@
         <v>304</v>
       </c>
       <c r="M38" s="100" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P38" s="100"/>
       <c r="Q38" s="100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5256,25 +5252,25 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G40" s="98" t="s">
         <v>325</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I40" s="98" t="s">
         <v>295</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K40" s="98" t="s">
         <v>295</v>
@@ -5290,13 +5286,13 @@
       </c>
       <c r="O40" s="98"/>
       <c r="P40" s="98" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q40" s="98" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="R40" s="98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5359,25 +5355,25 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G42" s="100" t="s">
         <v>326</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I42" s="100" t="s">
         <v>296</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K42" s="100" t="s">
         <v>296</v>
@@ -5393,13 +5389,13 @@
       </c>
       <c r="O42" s="100"/>
       <c r="P42" s="100" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q42" s="100" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R42" s="100" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5429,7 +5425,7 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E44" s="98" t="s">
         <v>272</v>
@@ -5449,20 +5445,20 @@
         <v>315</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="N44" s="98" t="s">
         <v>270</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="R44" s="98" t="s">
         <v>335</v>
@@ -5528,10 +5524,10 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
@@ -5548,20 +5544,20 @@
         <v>316</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N46" s="100" t="s">
         <v>271</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="R46" s="100" t="s">
         <v>336</v>
@@ -5594,7 +5590,7 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E48" s="98" t="s">
         <v>270</v>
@@ -5651,7 +5647,7 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E50" s="100" t="s">
         <v>271</v>
@@ -8278,7 +8274,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8296,7 +8292,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8321,7 +8317,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="107"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -8341,7 +8337,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="107"/>
+      <c r="I6" s="109"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -8363,7 +8359,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="107"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8379,7 +8375,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="107"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8401,7 +8397,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="107"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -8417,7 +8413,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="107"/>
+      <c r="I8" s="109"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -8439,7 +8435,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="107"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8455,7 +8451,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="107"/>
+      <c r="I9" s="109"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8477,7 +8473,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="108"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -8493,7 +8489,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="108"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -8516,7 +8512,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="108" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8534,7 +8530,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="108" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -8558,7 +8554,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="107"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -8578,7 +8574,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="107"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -8598,7 +8594,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="107"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8612,7 +8608,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="107"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8632,7 +8628,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="107"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8646,7 +8642,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="107"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8666,7 +8662,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="107"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8680,7 +8676,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="107"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8700,7 +8696,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="108"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -8714,7 +8710,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="108"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A88432-34A8-48AC-AEDE-5F7A160B9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE03B3C5-7C79-4C3C-808D-99EA154AF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="420">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1159,9 +1159,6 @@
     <t>至</t>
   </si>
   <si>
-    <t>受</t>
-  </si>
-  <si>
     <t>持</t>
   </si>
   <si>
@@ -1231,9 +1228,6 @@
     <t>多</t>
   </si>
   <si>
-    <t>甚</t>
-  </si>
-  <si>
     <t>諸</t>
   </si>
   <si>
@@ -1250,9 +1244,6 @@
   </si>
   <si>
     <t>中</t>
-  </si>
-  <si>
-    <t>他</t>
   </si>
   <si>
     <t>其</t>
@@ -1275,668 +1266,683 @@
     <t>生</t>
   </si>
   <si>
+    <t>滿</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>寶</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>寧</t>
+  </si>
+  <si>
+    <t>性</t>
+  </si>
+  <si>
+    <t>勝</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>耨</t>
+  </si>
+  <si>
+    <t>藐</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>謂</t>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>八</t>
-  </si>
-  <si>
-    <t>滿</t>
-  </si>
-  <si>
-    <t>七</t>
-  </si>
-  <si>
-    <t>寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>寧</t>
-  </si>
-  <si>
-    <t>性</t>
-  </si>
-  <si>
-    <t>勝</t>
-  </si>
-  <si>
-    <t>彼</t>
-  </si>
-  <si>
-    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>阿</t>
-  </si>
-  <si>
-    <t>耨</t>
-  </si>
-  <si>
-    <t>藐</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
-    <t>i1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆤㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆩ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍ一ㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="82">
+  <fonts count="81">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2490,11 +2496,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Sitka Text Semibold"/>
-    </font>
-    <font>
       <sz val="26"/>
       <color rgb="FFFF0000"/>
       <name val="芫荽 0.94"/>
@@ -2510,12 +2511,8 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮細明台語破音01"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <sz val="24"/>
+      <name val="Sitka Text Semibold"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2717,7 +2714,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3017,9 +3014,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3713,7 +3707,7 @@
   <dimension ref="B2:V166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3771,32 +3765,32 @@
       <c r="R3" s="99"/>
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="105" t="s">
-        <v>245</v>
+      <c r="V3" s="104" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="98" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>362</v>
+        <v>265</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>323</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="98"/>
@@ -3807,23 +3801,23 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="98"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="106"/>
+      <c r="V4" s="105"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
         <v>1</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G5" s="96" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H5" s="95" t="s">
         <v>168</v>
@@ -3831,8 +3825,8 @@
       <c r="I5" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="J5" s="95" t="s">
-        <v>249</v>
+      <c r="J5" s="102" t="s">
+        <v>402</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
@@ -3843,31 +3837,31 @@
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="106"/>
+      <c r="V5" s="105"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="100" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="E6" s="100" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="J6" s="100" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
@@ -3878,7 +3872,7 @@
       <c r="Q6" s="100"/>
       <c r="R6" s="100"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="106"/>
+      <c r="V6" s="105"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -3899,52 +3893,52 @@
       <c r="Q7" s="99"/>
       <c r="R7" s="99"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="105"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98"/>
       <c r="E8" s="98" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="98" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="O8" s="98" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="R8" s="101" t="s">
-        <v>383</v>
+        <v>278</v>
+      </c>
+      <c r="R8" s="98" t="s">
+        <v>337</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="105"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -3968,19 +3962,19 @@
         <v>187</v>
       </c>
       <c r="I9" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="95" t="s">
-        <v>228</v>
-      </c>
       <c r="K9" s="95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="95" t="s">
         <v>188</v>
       </c>
       <c r="M9" s="95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N9" s="95" t="s">
         <v>206</v>
@@ -3989,62 +3983,62 @@
         <v>199</v>
       </c>
       <c r="P9" s="95" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R9" s="95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="105"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H10" s="100"/>
-      <c r="I10" s="102" t="s">
-        <v>404</v>
+      <c r="I10" s="100" t="s">
+        <v>347</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="O10" s="100" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="R10" s="102" t="s">
-        <v>392</v>
+        <v>372</v>
+      </c>
+      <c r="R10" s="100" t="s">
+        <v>373</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:22" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="77"/>
@@ -4063,58 +4057,58 @@
       <c r="O11" s="99"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="99" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="R11" s="99"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="105"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="J12" s="98"/>
       <c r="K12" s="98" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="N12" s="98" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="O12" s="98"/>
       <c r="P12" s="98" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="98" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="R12" s="98" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="106"/>
+      <c r="V12" s="105"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4123,37 +4117,37 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="95" t="s">
         <v>200</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H13" s="95" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I13" s="95" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J13" s="95" t="s">
         <v>167</v>
       </c>
       <c r="K13" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="L13" s="95" t="s">
-        <v>253</v>
+        <v>223</v>
+      </c>
+      <c r="L13" s="102" t="s">
+        <v>403</v>
       </c>
       <c r="M13" s="95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N13" s="95" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O13" s="95" t="s">
         <v>172</v>
@@ -4168,54 +4162,54 @@
         <v>190</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="105"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="102" t="s">
-        <v>393</v>
+        <v>376</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="I14" s="100" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="100" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="R14" s="100" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="S14" s="58"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="105"/>
     </row>
     <row r="15" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="74"/>
@@ -4227,7 +4221,9 @@
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
       <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
+      <c r="K15" s="99" t="s">
+        <v>404</v>
+      </c>
       <c r="L15" s="99"/>
       <c r="M15" s="99"/>
       <c r="N15" s="99"/>
@@ -4236,50 +4232,50 @@
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
       <c r="S15" s="81"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="105"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>400</v>
+        <v>295</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>343</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="L16" s="98"/>
       <c r="M16" s="98" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
       <c r="S16" s="53"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="105"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="66">
@@ -4288,31 +4284,31 @@
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G17" s="96" t="s">
         <v>167</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I17" s="95" t="s">
         <v>201</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K17" s="95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L17" s="95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>183</v>
@@ -4324,7 +4320,7 @@
         <v>185</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="95" t="s">
         <v>171</v>
@@ -4333,50 +4329,50 @@
         <v>186</v>
       </c>
       <c r="S17" s="54"/>
-      <c r="V17" s="106"/>
+      <c r="V17" s="105"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" s="102" t="s">
-        <v>401</v>
+        <v>296</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>344</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I18" s="100" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="J18" s="100" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="L18" s="100"/>
       <c r="M18" s="100" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="N18" s="100" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="P18" s="100" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
       <c r="S18" s="58"/>
-      <c r="V18" s="106"/>
+      <c r="V18" s="105"/>
     </row>
     <row r="19" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="74"/>
@@ -4397,50 +4393,50 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="99"/>
       <c r="S19" s="81"/>
-      <c r="V19" s="106"/>
+      <c r="V19" s="105"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>331</v>
+        <v>414</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="98" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P20" s="98" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="98"/>
       <c r="R20" s="98" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="S20" s="53"/>
-      <c r="V20" s="106"/>
+      <c r="V20" s="105"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="66">
@@ -4448,11 +4444,11 @@
         <v>5</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="95" t="s">
-        <v>235</v>
+      <c r="D21" s="102" t="s">
+        <v>405</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" s="95" t="s">
         <v>172</v>
@@ -4470,74 +4466,74 @@
         <v>188</v>
       </c>
       <c r="K21" s="95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L21" s="95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M21" s="95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" s="95" t="s">
         <v>170</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P21" s="95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="95" t="s">
         <v>167</v>
       </c>
       <c r="R21" s="95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S21" s="54"/>
-      <c r="V21" s="106"/>
+      <c r="V21" s="105"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="O22" s="100" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="P22" s="100" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="100"/>
       <c r="R22" s="100" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="S22" s="58"/>
-      <c r="V22" s="107"/>
+      <c r="V22" s="106"/>
     </row>
     <row r="23" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="74"/>
@@ -4564,41 +4560,41 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="M24" s="98" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98"/>
@@ -4612,16 +4608,16 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F25" s="95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G25" s="96" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H25" s="95" t="s">
         <v>172</v>
@@ -4630,25 +4626,25 @@
         <v>170</v>
       </c>
       <c r="J25" s="95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K25" s="95" t="s">
         <v>204</v>
       </c>
       <c r="L25" s="95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M25" s="95" t="s">
         <v>203</v>
       </c>
       <c r="N25" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O25" s="95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P25" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="95" t="s">
         <v>172</v>
@@ -4663,41 +4659,41 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="J26" s="100" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>339</v>
-      </c>
-      <c r="L26" s="102" t="s">
-        <v>417</v>
+        <v>309</v>
+      </c>
+      <c r="L26" s="100" t="s">
+        <v>359</v>
       </c>
       <c r="M26" s="100" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="N26" s="100" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
@@ -4738,42 +4734,42 @@
       <c r="C28" s="52"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="I28" s="98"/>
       <c r="J28" s="98" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="R28" s="98" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -4795,7 +4791,7 @@
         <v>206</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="96" t="s">
         <v>195</v>
@@ -4807,7 +4803,7 @@
         <v>167</v>
       </c>
       <c r="J29" s="95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K29" s="95" t="s">
         <v>207</v>
@@ -4816,16 +4812,16 @@
         <v>208</v>
       </c>
       <c r="M29" s="95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N29" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="O29" s="95" t="s">
+      <c r="O29" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="P29" s="95" t="s">
         <v>211</v>
-      </c>
-      <c r="P29" s="95" t="s">
-        <v>212</v>
       </c>
       <c r="Q29" s="95" t="s">
         <v>209</v>
@@ -4845,42 +4841,42 @@
       <c r="C30" s="52"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="I30" s="100"/>
       <c r="J30" s="100" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -4918,42 +4914,42 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="H32" s="98"/>
       <c r="I32" s="98" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="J32" s="98" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="M32" s="98"/>
       <c r="N32" s="98" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="R32" s="98"/>
       <c r="S32" s="53"/>
@@ -4970,15 +4966,15 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="F33" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="104" t="s">
+      <c r="G33" s="95" t="s">
         <v>205</v>
       </c>
       <c r="H33" s="95" t="s">
@@ -4987,10 +4983,10 @@
       <c r="I33" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="J33" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="K33" s="103" t="s">
+      <c r="J33" s="102" t="s">
+        <v>407</v>
+      </c>
+      <c r="K33" s="95" t="s">
         <v>199</v>
       </c>
       <c r="L33" s="95" t="s">
@@ -5000,16 +4996,16 @@
         <v>167</v>
       </c>
       <c r="N33" s="95" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O33" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P33" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q33" s="103" t="s">
-        <v>258</v>
+        <v>252</v>
+      </c>
+      <c r="Q33" s="95" t="s">
+        <v>253</v>
       </c>
       <c r="R33" s="95" t="s">
         <v>172</v>
@@ -5021,42 +5017,42 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="G34" s="102" t="s">
-        <v>419</v>
+        <v>394</v>
+      </c>
+      <c r="G34" s="100" t="s">
+        <v>361</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="M34" s="100"/>
       <c r="N34" s="100" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="R34" s="100"/>
       <c r="S34" s="58"/>
@@ -5087,43 +5083,43 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K36" s="98"/>
       <c r="L36" s="98" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="M36" s="98" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="P36" s="98"/>
       <c r="Q36" s="98" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5138,13 +5134,13 @@
         <v>188</v>
       </c>
       <c r="E37" s="95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F37" s="95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G37" s="96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H37" s="95" t="s">
         <v>183</v>
@@ -5159,13 +5155,13 @@
         <v>187</v>
       </c>
       <c r="L37" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="M37" s="95" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="M37" s="102" t="s">
+        <v>408</v>
       </c>
       <c r="N37" s="95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O37" s="95" t="s">
         <v>194</v>
@@ -5174,10 +5170,10 @@
         <v>167</v>
       </c>
       <c r="Q37" s="95" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="R37" s="95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S37" s="54"/>
       <c r="V37" s="69"/>
@@ -5186,43 +5182,43 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="G38" s="100"/>
       <c r="H38" s="100" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="I38" s="100" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J38" s="100" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="K38" s="100"/>
       <c r="L38" s="100" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="M38" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="N38" s="100" t="s">
         <v>397</v>
       </c>
-      <c r="N38" s="100" t="s">
-        <v>366</v>
-      </c>
       <c r="O38" s="100" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="P38" s="100"/>
       <c r="Q38" s="100" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5252,47 +5248,47 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="G40" s="98" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M40" s="98" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="N40" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O40" s="98"/>
       <c r="P40" s="98" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="Q40" s="98" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="R40" s="98" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5307,25 +5303,25 @@
         <v>194</v>
       </c>
       <c r="E41" s="95" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F41" s="95" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G41" s="96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H41" s="95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J41" s="95" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K41" s="95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L41" s="95" t="s">
         <v>184</v>
@@ -5334,16 +5330,16 @@
         <v>185</v>
       </c>
       <c r="N41" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O41" s="95" t="s">
         <v>167</v>
       </c>
       <c r="P41" s="95" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="95" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R41" s="95" t="s">
         <v>207</v>
@@ -5355,47 +5351,47 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="F42" s="100" t="s">
+        <v>399</v>
+      </c>
+      <c r="G42" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="H42" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="I42" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="G42" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="H42" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="I42" s="100" t="s">
-        <v>296</v>
-      </c>
       <c r="J42" s="100" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M42" s="100" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="N42" s="100" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O42" s="100"/>
       <c r="P42" s="100" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="Q42" s="100" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="R42" s="100" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5425,43 +5421,43 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E44" s="98" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="98" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="N44" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5476,7 +5472,7 @@
         <v>208</v>
       </c>
       <c r="E45" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F45" s="95" t="s">
         <v>172</v>
@@ -5497,25 +5493,25 @@
         <v>190</v>
       </c>
       <c r="L45" s="95" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M45" s="95" t="s">
         <v>194</v>
       </c>
       <c r="N45" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O45" s="95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P45" s="95" t="s">
         <v>167</v>
       </c>
       <c r="Q45" s="95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R45" s="95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S45" s="54"/>
       <c r="V45" s="69"/>
@@ -5524,43 +5520,43 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I46" s="100" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="N46" s="100" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5590,10 +5586,10 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="E48" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
@@ -5621,7 +5617,7 @@
         <v>194</v>
       </c>
       <c r="E49" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="95" t="s">
         <v>172</v>
@@ -5647,10 +5643,10 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E50" s="100" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F50" s="100"/>
       <c r="G50" s="100"/>
@@ -8274,7 +8270,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8292,7 +8288,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8317,7 +8313,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="109"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -8337,7 +8333,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="109"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -8359,7 +8355,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="109"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8375,7 +8371,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="109"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8397,7 +8393,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="109"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -8413,7 +8409,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="109"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -8435,7 +8431,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="109"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8451,7 +8447,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="109"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8473,7 +8469,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -8489,7 +8485,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="110"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -8512,7 +8508,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8530,7 +8526,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="107" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -8554,7 +8550,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="109"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -8574,7 +8570,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="109"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -8594,7 +8590,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="109"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8608,7 +8604,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8628,7 +8624,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="109"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8642,7 +8638,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8662,7 +8658,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="109"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8676,7 +8672,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="109"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8696,7 +8692,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -8710,7 +8706,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="110"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經008。依法出生分第八.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE03B3C5-7C79-4C3C-808D-99EA154AF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D05C0F-A58D-4BE7-8943-2C524CBF72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1382,10 +1382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1762,10 +1758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄙㆤ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1943,6 +1935,14 @@
   </si>
   <si>
     <t>ㄘㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3706,9 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -3781,7 +3779,7 @@
         <v>265</v>
       </c>
       <c r="G4" s="103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="98" t="s">
         <v>266</v>
@@ -3790,7 +3788,7 @@
         <v>267</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="98"/>
@@ -3826,7 +3824,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
@@ -3843,25 +3841,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" s="100" t="s">
         <v>264</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G6" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="I6" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="I6" s="100" t="s">
-        <v>365</v>
-      </c>
       <c r="J6" s="100" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
@@ -3910,7 +3908,7 @@
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J8" s="98" t="s">
         <v>273</v>
@@ -3919,14 +3917,14 @@
         <v>274</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O8" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P8" s="98" t="s">
         <v>276</v>
@@ -3935,7 +3933,7 @@
         <v>278</v>
       </c>
       <c r="R8" s="98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="105"/>
@@ -4000,7 +3998,7 @@
       <c r="C10" s="52"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F10" s="100" t="s">
         <v>270</v>
@@ -4010,32 +4008,32 @@
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K10" s="100" t="s">
         <v>275</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O10" s="100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P10" s="100" t="s">
         <v>277</v>
       </c>
       <c r="Q10" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="R10" s="100" t="s">
         <v>372</v>
-      </c>
-      <c r="R10" s="100" t="s">
-        <v>373</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="105"/>
@@ -4057,7 +4055,7 @@
       <c r="O11" s="99"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R11" s="99"/>
       <c r="S11" s="57"/>
@@ -4067,45 +4065,45 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="F12" s="98" t="s">
+      <c r="G12" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="H12" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="98" t="s">
-        <v>282</v>
-      </c>
       <c r="I12" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J12" s="98"/>
       <c r="K12" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M12" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="N12" s="98" t="s">
         <v>288</v>
-      </c>
-      <c r="N12" s="98" t="s">
-        <v>289</v>
       </c>
       <c r="O12" s="98"/>
       <c r="P12" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="R12" s="98" t="s">
         <v>290</v>
-      </c>
-      <c r="Q12" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="R12" s="98" t="s">
-        <v>291</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="105"/>
@@ -4141,7 +4139,7 @@
         <v>223</v>
       </c>
       <c r="L13" s="102" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M13" s="95" t="s">
         <v>237</v>
@@ -4168,45 +4166,45 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="100" t="s">
-        <v>373</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="G14" s="100" t="s">
-        <v>376</v>
-      </c>
       <c r="H14" s="101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I14" s="100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O14" s="100"/>
       <c r="P14" s="100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R14" s="100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="105"/>
@@ -4222,7 +4220,7 @@
       <c r="I15" s="99"/>
       <c r="J15" s="99"/>
       <c r="K15" s="99" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L15" s="99"/>
       <c r="M15" s="99"/>
@@ -4238,26 +4236,26 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L16" s="98"/>
       <c r="M16" s="98" t="s">
@@ -4270,7 +4268,7 @@
         <v>271</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="98"/>
       <c r="R16" s="98"/>
@@ -4335,30 +4333,30 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F18" s="100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G18" s="100"/>
       <c r="H18" s="100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I18" s="100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J18" s="100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L18" s="100"/>
       <c r="M18" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N18" s="100" t="s">
         <v>270</v>
@@ -4367,7 +4365,7 @@
         <v>272</v>
       </c>
       <c r="P18" s="100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
@@ -4399,41 +4397,41 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P20" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="98"/>
       <c r="R20" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="105"/>
@@ -4445,7 +4443,7 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="102" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E21" s="95" t="s">
         <v>233</v>
@@ -4496,41 +4494,41 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M22" s="100"/>
       <c r="N22" s="100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O22" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P22" s="100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="100"/>
       <c r="R22" s="100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="106"/>
@@ -4560,41 +4558,41 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="98" t="s">
         <v>306</v>
-      </c>
-      <c r="E24" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="G24" s="98" t="s">
-        <v>307</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M24" s="98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98"/>
@@ -4659,41 +4657,41 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="100" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E26" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J26" s="100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M26" s="100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N26" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
@@ -4734,42 +4732,42 @@
       <c r="C28" s="52"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I28" s="98"/>
       <c r="J28" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L28" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="M28" s="98" t="s">
         <v>314</v>
-      </c>
-      <c r="M28" s="98" t="s">
-        <v>315</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R28" s="98" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -4818,7 +4816,7 @@
         <v>167</v>
       </c>
       <c r="O29" s="102" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P29" s="95" t="s">
         <v>211</v>
@@ -4841,42 +4839,42 @@
       <c r="C30" s="52"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I30" s="100"/>
       <c r="J30" s="100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K30" s="100" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="100" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" s="100" t="s">
         <v>385</v>
-      </c>
-      <c r="L30" s="100" t="s">
-        <v>386</v>
-      </c>
-      <c r="M30" s="100" t="s">
-        <v>387</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -4914,42 +4912,42 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H32" s="98"/>
       <c r="I32" s="98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J32" s="98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M32" s="98"/>
       <c r="N32" s="98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R32" s="98"/>
       <c r="S32" s="53"/>
@@ -4984,7 +4982,7 @@
         <v>201</v>
       </c>
       <c r="J33" s="102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K33" s="95" t="s">
         <v>199</v>
@@ -5017,42 +5015,42 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="100" t="s">
         <v>392</v>
       </c>
-      <c r="E34" s="100" t="s">
-        <v>393</v>
-      </c>
-      <c r="F34" s="100" t="s">
-        <v>394</v>
-      </c>
       <c r="G34" s="100" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M34" s="100"/>
       <c r="N34" s="100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R34" s="100"/>
       <c r="S34" s="58"/>
@@ -5083,13 +5081,13 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98" t="s">
@@ -5103,23 +5101,23 @@
       </c>
       <c r="K36" s="98"/>
       <c r="L36" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M36" s="98" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P36" s="98"/>
       <c r="Q36" s="98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5158,7 +5156,7 @@
         <v>254</v>
       </c>
       <c r="M37" s="102" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N37" s="95" t="s">
         <v>234</v>
@@ -5182,17 +5180,17 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="100" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G38" s="100"/>
       <c r="H38" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I38" s="100" t="s">
         <v>270</v>
@@ -5202,23 +5200,23 @@
       </c>
       <c r="K38" s="100"/>
       <c r="L38" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M38" s="100" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N38" s="100" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P38" s="100"/>
       <c r="Q38" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5248,25 +5246,25 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E40" s="98" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="F40" s="98" t="s">
+      <c r="G40" s="98" t="s">
+        <v>300</v>
+      </c>
+      <c r="H40" s="98" t="s">
         <v>328</v>
-      </c>
-      <c r="G40" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>329</v>
       </c>
       <c r="I40" s="98" t="s">
         <v>278</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K40" s="98" t="s">
         <v>278</v>
@@ -5282,13 +5280,13 @@
       </c>
       <c r="O40" s="98"/>
       <c r="P40" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q40" s="98" t="s">
         <v>333</v>
       </c>
-      <c r="Q40" s="98" t="s">
-        <v>334</v>
-      </c>
       <c r="R40" s="98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5351,28 +5349,28 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L42" s="100" t="s">
         <v>270</v>
@@ -5385,13 +5383,13 @@
       </c>
       <c r="O42" s="100"/>
       <c r="P42" s="100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q42" s="100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R42" s="100" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5421,7 +5419,7 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E44" s="98" t="s">
         <v>265</v>
@@ -5438,26 +5436,26 @@
       </c>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M44" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N44" s="98" t="s">
         <v>263</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5520,14 +5518,14 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F46" s="100"/>
       <c r="G46" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H46" s="100" t="s">
         <v>270</v>
@@ -5537,26 +5535,26 @@
       </c>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N46" s="100" t="s">
         <v>264</v>
       </c>
       <c r="O46" s="100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5586,7 +5584,7 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E48" s="98" t="s">
         <v>263</v>
@@ -5643,7 +5641,7 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" s="100" t="s">
         <v>264</v>
